--- a/biology/Botanique/Corymbia_ficifolia/Corymbia_ficifolia.xlsx
+++ b/biology/Botanique/Corymbia_ficifolia/Corymbia_ficifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Corymbia ficifolia est une espèce d'arbre du genre Corymbia.
 C'est un des arbres d'ornement de la famille des Myrtaceae les plus communément plantés. Il est originaire d'une très petite zone côtière du sud de l'Australie-Occidentale (quelques dizaines de kilomètres de long) à l'est de Walpole (à 430 km au sud de Perth, mais il n'est pas considéré comme espèce menacée dans la nature.
